--- a/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:12:56+00:00</t>
+    <t>2023-10-19T14:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/sd-correction-slicing-condition/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:17:53+00:00</t>
+    <t>2023-10-19T15:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
